--- a/DOCS/Testing/Testing Status per iteration.xlsx
+++ b/DOCS/Testing/Testing Status per iteration.xlsx
@@ -39,9 +39,6 @@
     <t xml:space="preserve">Manager Registeration </t>
   </si>
   <si>
-    <t>Edit Manager </t>
-  </si>
-  <si>
     <t>Total Number of defects:</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Edit Manager profile</t>
   </si>
 </sst>
 </file>
@@ -449,32 +449,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -491,7 +491,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2">
         <f>SUM(B3:B8)</f>
@@ -500,7 +500,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2">
         <v>2</v>
@@ -516,7 +516,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -543,7 +543,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -554,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -565,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -576,7 +576,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -587,7 +587,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -598,29 +598,29 @@
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2">
         <f>SUM(B3:B9)</f>
@@ -629,7 +629,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="2">
         <v>4</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="E16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
